--- a/benchmarking/results/spot_Phi-3-mini-4k-instruct_ep10_training_ds_v16_3-17_1-2_param-4_eval.xlsx
+++ b/benchmarking/results/spot_Phi-3-mini-4k-instruct_ep10_training_ds_v16_3-17_1-2_param-4_eval.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5946,19 +5946,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -19885,27 +19885,27 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="K135" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
